--- a/biology/Botanique/Asclepias_uncialis/Asclepias_uncialis.xlsx
+++ b/biology/Botanique/Asclepias_uncialis/Asclepias_uncialis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Asclepias uncialis est une espèce de plante à fleurs nord-américaine de la famille des Apocynaceae et du genre Asclepias.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Asclepias uncialis est une petite plante vivace dressée avec un rhizome. Les pousses fines et herbacées sont ascendantes ou couchées et mesurent seulement 5 à 20 cm de long. Plusieurs pousses poilues, densément compactées, très peu duveteuses et non ramifiées poussent hors du rhizome. Comme la plupart des autres asclépiades, les tiges contiennent une sève laiteuse.
 Les feuilles opposées aux feuilles alternées irrégulièrement sur les tiges sont courtes à très courtes (1 à 5 mm de long) et de forme très différente le long de la pousse. Les limbes inférieurs sont en forme d’œuf, les limbes supérieurs changent assez brusquement pour prendre une forme linéaire-lancéolée. L'extrémité externe est obtuse à aiguë, la base obtuse à arrondie. Elles mesurent 1 à 2 cm de long, 2 à 7 mm de large et sont très finement poilus.
@@ -548,7 +562,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Asclepias uncialis se trouve le long du sud des montagnes Rocheuses dans ce qui peut être considéré comme les grandes plaines occidentales. Elle s'étend sur les États américains de l'Arizona, du Colorado, du Nevada, du Nouveau-Mexique, de l'Oklahoma, du Texas, de l'Utah et du Wyoming. Elle pousse dans des sols secs, sableux ou caillouteux à une altitude de 1 100 à 2 150 m d'altitude.
 </t>
@@ -579,7 +595,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le taxon est décrit pour la première fois par Edward Lee Greene en 1880. En 1941, Bassett Maguire décrit le taxon Asclepias ruthiae ; l'épithète rend hommage à sa femme Ruth Maguire. Robert Everard Woodson considère les deux taxons comme des espèces valides en 1954. En revanche, Eric Sundell réduit Asclepias ruthiae en 1994 à une simple variété d’Asclepias uncialis. John T.Kartesz et Kanchi Natarajan Gandhi établissent le rang d’Asclepias ruthiae à une sous-espèce en 1991. Plant List accepte ses deux sous-espèces :
 Asclepias uncialis subsp. uncialis : cette sous-espèce est très petite, les pousses ne mesurent que 5 à 10 cm de long. Les feuilles sont lancéolées à linéaires. Les poils duveteux sont limités aux bords des feuilles et aux nervures des feuilles. Les fleurs sont relativement petites, les pétales de 3 à 4 mm de long. Les coins de la couronne secondaire ont des appendices triangulaires bien développés sur les bords. La sous-espèce uncialis est limitée à l'Arizona, au Colorado, au Nouveau-Mexique, à l'Oklahoma, au Texas, à l'Utah et au Wyoming. Elle pousse à 1 500 à 2 150 m d'altitude dans les forêts légères et les buissons du désert.
@@ -611,7 +629,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'habitat est principalement une prairie d'herbes courtes. La quantité d'habitat disponible a diminué au fil des ans en raison de sa conversion à des fins agricoles. Le territoire est dominé par les graminées, en particulier des espèces de Bouteloua.
 Asclepias uncialis pousse souvent avec Bouteloua dactyloides, Hesperostipa comata, Koeleria macrantha, Pascopyrum smithii, Aristida purpurea (en) et Sporobolus cryptandrus (en). Il y a également des arbustes tels que Artemisia tridentata. La plante peut également être présente dans les parties herbeuses des froêts de pins et de genévriers et d'autres forêts ouvertes. Les plantes peuvent pousser à la base de grandes aires telles que les mesas, mais elles ne se trouvent pas sur des affleurements rocheux ou des habitats perturbés tels que les dunes.
@@ -643,7 +663,9 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plusieurs menaces pour l'espèce. L'une est une menace inconnue probablement liée à la biologie de la plante qui est mise en évidence par son absence dans de grandes étendues d'habitat approprié et son absence d'un assemblage de plantes indigènes survivantes. Elle peut avoir de faibles taux de reproduction sexuée.
 </t>
